--- a/Adicionales/S2M12019_Adicionales.xlsx
+++ b/Adicionales/S2M12019_Adicionales.xlsx
@@ -618,10 +618,10 @@
   <dimension ref="A2:BN32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="T4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,13 +841,17 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
+      <c r="K4" s="11">
+        <v>3</v>
+      </c>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
@@ -904,7 +908,7 @@
       <c r="BM4" s="12"/>
       <c r="BN4" s="7">
         <f>SUM(C4:BM4)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.25">
@@ -916,13 +920,17 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5">
+        <v>2</v>
+      </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
+      <c r="K5" s="11">
+        <v>3</v>
+      </c>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
@@ -978,8 +986,8 @@
       <c r="BL5" s="11"/>
       <c r="BM5" s="12"/>
       <c r="BN5" s="7">
-        <f t="shared" ref="BN5:BN25" si="0">SUM(C5:BM5)</f>
-        <v>0</v>
+        <f t="shared" ref="BN5:BN30" si="0">SUM(C5:BM5)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.25">
@@ -991,13 +999,17 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="11"/>
+      <c r="E6" s="11">
+        <v>-1</v>
+      </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
+      <c r="K6" s="11">
+        <v>3</v>
+      </c>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
@@ -1054,7 +1066,7 @@
       <c r="BM6" s="12"/>
       <c r="BN6" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.25">
@@ -1066,7 +1078,9 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="E7" s="11">
+        <v>2</v>
+      </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -1129,7 +1143,7 @@
       <c r="BM7" s="12"/>
       <c r="BN7" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.25">
@@ -1141,13 +1155,17 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="K8" s="11">
+        <v>3</v>
+      </c>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
@@ -1204,7 +1222,7 @@
       <c r="BM8" s="12"/>
       <c r="BN8" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.25">
@@ -1216,7 +1234,9 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -1224,7 +1244,9 @@
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
+      <c r="M9" s="11">
+        <v>3</v>
+      </c>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
@@ -1279,7 +1301,7 @@
       <c r="BM9" s="12"/>
       <c r="BN9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.25">
@@ -1291,7 +1313,9 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5">
+        <v>-1</v>
+      </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -1299,7 +1323,9 @@
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
+      <c r="M10" s="11">
+        <v>3</v>
+      </c>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
@@ -1354,7 +1380,7 @@
       <c r="BM10" s="12"/>
       <c r="BN10" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.25">
@@ -1366,7 +1392,9 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5">
+        <v>-1</v>
+      </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -1374,7 +1402,9 @@
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
+      <c r="M11" s="11">
+        <v>3</v>
+      </c>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
@@ -1429,7 +1459,7 @@
       <c r="BM11" s="12"/>
       <c r="BN11" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.25">
@@ -1441,7 +1471,9 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="E12" s="11">
+        <v>-1</v>
+      </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
@@ -1449,7 +1481,9 @@
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
+      <c r="M12" s="11">
+        <v>3</v>
+      </c>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
@@ -1504,7 +1538,7 @@
       <c r="BM12" s="12"/>
       <c r="BN12" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.25">
@@ -1516,7 +1550,9 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="11">
+        <v>1</v>
+      </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -1524,7 +1560,10 @@
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
+      <c r="M13" s="11">
+        <f>3+3</f>
+        <v>6</v>
+      </c>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
@@ -1537,7 +1576,9 @@
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
       <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
+      <c r="Z13" s="11">
+        <v>5</v>
+      </c>
       <c r="AA13" s="11"/>
       <c r="AB13" s="11"/>
       <c r="AC13" s="11"/>
@@ -1579,7 +1620,7 @@
       <c r="BM13" s="12"/>
       <c r="BN13" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.25">
@@ -1591,7 +1632,9 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="11">
+        <v>-1</v>
+      </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
@@ -1654,7 +1697,7 @@
       <c r="BM14" s="12"/>
       <c r="BN14" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.25">
@@ -1666,7 +1709,9 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="5">
+        <v>-1</v>
+      </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -1729,7 +1774,7 @@
       <c r="BM15" s="12"/>
       <c r="BN15" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.25">
@@ -1741,7 +1786,9 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="E16" s="11">
+        <v>2</v>
+      </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -1804,7 +1851,7 @@
       <c r="BM16" s="12"/>
       <c r="BN16" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:66" x14ac:dyDescent="0.25">
@@ -1891,7 +1938,9 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="5">
+        <v>-1</v>
+      </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -1954,7 +2003,7 @@
       <c r="BM18" s="12"/>
       <c r="BN18" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:66" x14ac:dyDescent="0.25">
@@ -1966,7 +2015,9 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -2029,7 +2080,7 @@
       <c r="BM19" s="12"/>
       <c r="BN19" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:66" x14ac:dyDescent="0.25">
@@ -2041,7 +2092,9 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="5">
+        <v>-1</v>
+      </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
@@ -2104,7 +2157,7 @@
       <c r="BM20" s="12"/>
       <c r="BN20" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:66" x14ac:dyDescent="0.25">
@@ -2116,7 +2169,9 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
@@ -2179,7 +2234,7 @@
       <c r="BM21" s="12"/>
       <c r="BN21" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:66" x14ac:dyDescent="0.25">
@@ -2191,7 +2246,9 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="11">
+        <v>-1</v>
+      </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
@@ -2254,7 +2311,7 @@
       <c r="BM22" s="12"/>
       <c r="BN22" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:66" x14ac:dyDescent="0.25">
@@ -2266,7 +2323,9 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="11">
+        <v>0</v>
+      </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
@@ -2341,7 +2400,9 @@
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+      <c r="E24" s="11">
+        <v>0</v>
+      </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -2416,7 +2477,9 @@
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="E25" s="11">
+        <v>-1</v>
+      </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -2479,7 +2542,7 @@
       <c r="BM25" s="12"/>
       <c r="BN25" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:66" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -2491,7 +2554,9 @@
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
+      <c r="E26" s="11">
+        <v>1</v>
+      </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -2552,7 +2617,10 @@
       <c r="BK26" s="11"/>
       <c r="BL26" s="11"/>
       <c r="BM26" s="12"/>
-      <c r="BN26" s="7"/>
+      <c r="BN26" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:66" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -2563,7 +2631,9 @@
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
+      <c r="E27" s="11">
+        <v>1</v>
+      </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
@@ -2624,7 +2694,10 @@
       <c r="BK27" s="11"/>
       <c r="BL27" s="11"/>
       <c r="BM27" s="12"/>
-      <c r="BN27" s="7"/>
+      <c r="BN27" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:66" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -2635,7 +2708,9 @@
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
+      <c r="E28" s="11">
+        <v>-1</v>
+      </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
@@ -2696,7 +2771,10 @@
       <c r="BK28" s="11"/>
       <c r="BL28" s="11"/>
       <c r="BM28" s="12"/>
-      <c r="BN28" s="7"/>
+      <c r="BN28" s="7">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
     </row>
     <row r="29" spans="1:66" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -2707,7 +2785,9 @@
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
+      <c r="E29" s="11">
+        <v>2</v>
+      </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -2746,7 +2826,9 @@
       <c r="AO29" s="11"/>
       <c r="AP29" s="11"/>
       <c r="AQ29" s="11"/>
-      <c r="AR29" s="11"/>
+      <c r="AR29" s="11">
+        <v>3</v>
+      </c>
       <c r="AS29" s="11"/>
       <c r="AT29" s="11"/>
       <c r="AU29" s="11"/>
@@ -2768,7 +2850,10 @@
       <c r="BK29" s="11"/>
       <c r="BL29" s="11"/>
       <c r="BM29" s="12"/>
-      <c r="BN29" s="7"/>
+      <c r="BN29" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="1:66" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -2779,7 +2864,9 @@
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
+      <c r="E30" s="11">
+        <v>-1</v>
+      </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
@@ -2787,7 +2874,9 @@
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
+      <c r="M30" s="11">
+        <v>3</v>
+      </c>
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
@@ -2840,7 +2929,10 @@
       <c r="BK30" s="11"/>
       <c r="BL30" s="11"/>
       <c r="BM30" s="12"/>
-      <c r="BN30" s="7"/>
+      <c r="BN30" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="31" spans="1:66" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31">
